--- a/static/analysis_ratios.xlsx
+++ b/static/analysis_ratios.xlsx
@@ -1,65 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirzafarangi/Desktop/meta-analysis/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alenka/Desktop/meta-analysis/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BCC15E80-5E5E-2441-B476-DB637201DF5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F119C-AE6A-3B41-8310-B6D3D0650E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15940" xr2:uid="{705A08C2-2E62-1C47-B8E8-4A0A1A64469E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>Bisch 2017</t>
-  </si>
-  <si>
-    <t>Corbisiero 2017</t>
-  </si>
-  <si>
-    <t>Irastorza 2016</t>
-  </si>
-  <si>
-    <t>Miller 2015</t>
-  </si>
-  <si>
-    <t>Mitchell 2012</t>
-  </si>
-  <si>
-    <t>Rapport 2012</t>
-  </si>
-  <si>
-    <t>Reimherr 2015</t>
-  </si>
-  <si>
-    <t>Richard-Lepouriel 2015</t>
-  </si>
-  <si>
-    <t>Skirrow &amp; Asherson</t>
-  </si>
-  <si>
-    <t>Surman 2015</t>
-  </si>
-  <si>
     <t>Events (g1)</t>
   </si>
   <si>
@@ -73,6 +49,24 @@
   </si>
   <si>
     <t>Moderator</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -96,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +121,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,9 +157,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C58B5C-33BD-E34D-8BAE-1C3085D4B7ED}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,224 +490,145 @@
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>10</v>
-      </c>
       <c r="C2" s="5">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5">
-        <v>99</v>
+        <v>375</v>
       </c>
       <c r="D5" s="5">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="F5" s="5">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="F7" s="5">
         <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
-        <v>92</v>
-      </c>
-      <c r="F8" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
-        <v>90</v>
-      </c>
-      <c r="D9" s="5">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>92</v>
-      </c>
-      <c r="F9" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5">
-        <v>92</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>84</v>
-      </c>
-      <c r="F10" s="5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <v>95</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>89</v>
-      </c>
-      <c r="F11" s="5">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/static/analysis_ratios.xlsx
+++ b/static/analysis_ratios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alenka/Desktop/meta-analysis/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F119C-AE6A-3B41-8310-B6D3D0650E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0985094-43C3-A443-B90A-1B6165EF141F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15940" xr2:uid="{705A08C2-2E62-1C47-B8E8-4A0A1A64469E}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +118,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +471,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
